--- a/Diagrams/budget.xlsx
+++ b/Diagrams/budget.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4ano\Embebidos\embebidos2122\Diagrams\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A412F57D-11C1-4863-8E17-F893BF461117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="13332" windowHeight="5808"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,6 @@
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -79,11 +84,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +104,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,12 +147,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -255,7 +254,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -264,8 +263,6 @@
     <xf numFmtId="6" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -275,6 +272,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -321,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +358,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,6 +410,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,24 +603,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C4" sqref="C4:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="94.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="94.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="67.2" customHeight="1"/>
-    <row r="3" spans="3:6" ht="67.2" customHeight="1" thickBot="1"/>
-    <row r="4" spans="3:6" ht="17.399999999999999" customHeight="1">
+    <row r="2" spans="3:6" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:6" ht="67.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -587,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -596,7 +637,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
@@ -605,7 +646,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
@@ -614,7 +655,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
@@ -622,7 +663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
@@ -631,7 +672,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -640,7 +681,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>1</v>
       </c>
@@ -648,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
@@ -656,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -664,7 +705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
@@ -672,7 +713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
@@ -680,15 +721,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="7.8" customHeight="1">
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="3:4" ht="15" thickBot="1">
-      <c r="C17" s="8" t="s">
+    <row r="16" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -698,24 +735,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
